--- a/biology/Botanique/Geranium_lanuginosum/Geranium_lanuginosum.xlsx
+++ b/biology/Botanique/Geranium_lanuginosum/Geranium_lanuginosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geranium lanuginosum
 Le Géranium laineux (Geranium lanuginosum) est une espèce de plante de la famille des Géraniacées.
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée, velue-glanduleuse, de 10 à 30 cm de haut, à feuilles polygonales pluripartites, et fleurs bleu lilas.
 </t>
@@ -548,16 +562,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Organes reproducteurs
-Couleur dominante des fleurs : bleu lilas
+          <t>Organes reproducteurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Couleur dominante des fleurs : bleu lilas
 Période de floraison : mai-septembre
 Inflorescence : racème de cymes unipares hélicoïdes
 Sexualité : hermaphrodite
 Pollinisation : entomogame, autogame
 Fruit : capsules.
-Dissémination : épizoochore
-Habitat et répartition
-Le Géranium laineux est présent sur le pourtour méditerranéen : Tunisie, Algérie, Grèce, Italie, Sicile, Sardaigne et Corse ainsi que dans les départements du Var et des Alpes-Maritimes.
+Dissémination : épizoochore</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Geranium_lanuginosum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geranium_lanuginosum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Géranium laineux est présent sur le pourtour méditerranéen : Tunisie, Algérie, Grèce, Italie, Sicile, Sardaigne et Corse ainsi que dans les départements du Var et des Alpes-Maritimes.
 Il affectionne les bois et les coteaux sur les parties à tonte annuelle.
 </t>
         </is>
